--- a/xlsx/美国职棒大联盟_intext.xlsx
+++ b/xlsx/美国职棒大联盟_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="563">
   <si>
     <t>美国职棒大联盟</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%8C%E6%A3%92%E5%A4%A7%E8%81%94%E7%9B%9F</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83</t>
@@ -29,7 +29,7 @@
     <t>棒球</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国职棒大联盟</t>
+    <t>政策_政策_加州_美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -59,79 +59,79 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%AA%E7%A9%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>休士頓太空人</t>
+    <t>休士顿太空人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%B4%8B%E5%9F%BA</t>
   </si>
   <si>
-    <t>紐約洋基</t>
+    <t>纽约洋基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9B%9B%E5%A4%A7%E8%81%B7%E6%A5%AD%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>北美四大職業運動</t>
+    <t>北美四大职业运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家聯盟</t>
+    <t>国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國聯盟</t>
+    <t>美国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E5%AE%9A%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>指定打擊</t>
+    <t>指定打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職業棒球小聯盟</t>
+    <t>美国职业棒球小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7%E5%8B%87%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞特蘭大勇士</t>
+    <t>亚特兰大勇士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E9%A6%AC%E6%9E%97%E9%AD%9A</t>
   </si>
   <si>
-    <t>佛羅里達馬林魚</t>
+    <t>佛罗里达马林鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E9%83%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>紐約大都會</t>
+    <t>纽约大都会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E8%B2%BB%E5%9F%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>費城費城人</t>
+    <t>费城费城人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%9C%8B%E6%B0%91</t>
   </si>
   <si>
-    <t>華盛頓國民</t>
+    <t>华盛顿国民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%B0%8F%E7%86%8A</t>
@@ -143,91 +143,91 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90%E7%B4%85</t>
   </si>
   <si>
-    <t>辛辛那提紅</t>
+    <t>辛辛那提红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA%E9%87%80%E9%85%92%E4%BA%BA</t>
   </si>
   <si>
-    <t>密爾瓦基釀酒人</t>
+    <t>密尔瓦基酿酒人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E6%B5%B7%E7%9B%9C</t>
   </si>
   <si>
-    <t>匹茲堡海盜</t>
+    <t>匹兹堡海盗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E7%B4%85%E9%9B%80</t>
   </si>
   <si>
-    <t>聖路易紅雀</t>
+    <t>圣路易红雀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87</t>
   </si>
   <si>
-    <t>亞利桑那響尾蛇</t>
+    <t>亚利桑那响尾蛇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
   </si>
   <si>
-    <t>科羅拉多洛磯</t>
+    <t>科罗拉多洛矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%81%93%E5%A5%87</t>
   </si>
   <si>
-    <t>洛杉磯道奇</t>
+    <t>洛杉矶道奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>聖地牙哥教士</t>
+    <t>圣地牙哥教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>舊金山巨人</t>
+    <t>旧金山巨人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9%E9%87%91%E9%B6%AF</t>
   </si>
   <si>
-    <t>巴爾的摩金鶯</t>
+    <t>巴尔的摩金莺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
   </si>
   <si>
-    <t>波士頓紅襪</t>
+    <t>波士顿红袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E5%85%89%E8%8A%92</t>
   </si>
   <si>
-    <t>坦帕灣光芒</t>
+    <t>坦帕湾光芒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E8%97%8D%E9%B3%A5</t>
   </si>
   <si>
-    <t>多倫多藍鳥</t>
+    <t>多伦多蓝鸟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%99%BD%E8%A5%AA</t>
   </si>
   <si>
-    <t>芝加哥白襪</t>
+    <t>芝加哥白袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E5%8D%B0%E5%9C%B0%E5%AE%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>克里夫蘭印地安人</t>
+    <t>克里夫兰印地安人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E8%80%81%E8%99%8E</t>
@@ -239,37 +239,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B8%82%E7%9A%87%E5%AE%B6</t>
   </si>
   <si>
-    <t>堪薩斯市皇家</t>
+    <t>堪萨斯市皇家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E9%9B%99%E5%9F%8E</t>
   </si>
   <si>
-    <t>明尼蘇達雙城</t>
+    <t>明尼苏达双城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>洛杉磯安那罕天使</t>
+    <t>洛杉矶安那罕天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E9%81%8B%E5%8B%95%E5%AE%B6</t>
   </si>
   <si>
-    <t>奧克蘭運動家</t>
+    <t>奥克兰运动家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B0%B4%E6%89%8B</t>
   </si>
   <si>
-    <t>西雅圖水手</t>
+    <t>西雅图水手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>德克薩斯遊騎兵 (棒球)</t>
+    <t>德克萨斯游骑兵 (棒球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8D%A1</t>
@@ -281,85 +281,85 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒小聯盟</t>
+    <t>美国职棒小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E7%9B%9F%E6%9D%B1%E5%8D%80</t>
   </si>
   <si>
-    <t>美國聯盟東區</t>
+    <t>美国联盟东区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%B6%AF%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>金鶯公園</t>
+    <t>金莺公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%A8%81%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>芬威球場</t>
+    <t>芬威球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B4%8B%E5%9F%BA%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>新洋基球場</t>
+    <t>新洋基球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BD%BC%E5%BE%B7%E6%96%AF%E5%A0%A1</t>
   </si>
   <si>
-    <t>聖彼德斯堡</t>
+    <t>圣彼德斯堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E5%93%81%E5%BA%B7%E7%B4%8D%E5%AE%A4%E5%85%A7%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>純品康納室內球場</t>
+    <t>纯品康纳室内球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A</t>
   </si>
   <si>
-    <t>多倫多</t>
+    <t>多伦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%E6%96%AF%E4%B8%AD%E5%BF%83</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E7%9B%9F%E4%B8%AD%E5%8D%80</t>
   </si>
   <si>
-    <t>美國聯盟中區</t>
+    <t>美国联盟中区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%AD%89%E7%8E%87%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>保證率球場</t>
+    <t>保证率球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD</t>
   </si>
   <si>
-    <t>克里夫蘭</t>
+    <t>克里夫兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E6%AD%A5%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>進步球場</t>
+    <t>进步球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
@@ -437,91 +437,91 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E4%BF%A1%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>聯信球場</t>
+    <t>联信球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B8%82</t>
   </si>
   <si>
-    <t>堪薩斯市</t>
+    <t>堪萨斯市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%A4%AB%E6%9B%BC%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>考夫曼體育場</t>
+    <t>考夫曼体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E4%BA%9E%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>明尼亞波利斯</t>
+    <t>明尼亚波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E9%9D%B6%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>標靶球場</t>
+    <t>标靶球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E7%9B%9F%E8%A5%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>美國聯盟西區</t>
+    <t>美国联盟西区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B2%92%E6%9E%9C%E5%85%AC%E5%9C%92%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>美粒果公園球場</t>
+    <t>美粒果公园球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>洛杉磯天使</t>
+    <t>洛杉矶天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%B4%8D%E7%BD%95</t>
   </si>
   <si>
-    <t>安納罕</t>
+    <t>安纳罕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>安那罕天使球場</t>
+    <t>安那罕天使球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -533,115 +533,115 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD-%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E9%83%A1%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>奧克蘭-阿拉米達郡競技場</t>
+    <t>奥克兰-阿拉米达郡竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
+    <t>华盛顿州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%B2%BB%E6%9F%AF%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>塞費柯球場</t>
+    <t>塞费柯球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93</t>
   </si>
   <si>
-    <t>阿靈頓</t>
+    <t>阿灵顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93%E6%A3%92%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>阿靈頓棒球場</t>
+    <t>阿灵顿棒球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E4%BF%A1%E8%A8%97%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>太陽信託公園</t>
+    <t>太阳信讬公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E9%A6%AC%E6%9E%97%E9%AD%9A</t>
   </si>
   <si>
-    <t>邁阿密馬林魚</t>
+    <t>迈阿密马林鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E9%AD%9A%E6%A3%92%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>馬林魚棒球場</t>
+    <t>马林鱼棒球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>花旗球場</t>
+    <t>花旗球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E6%B0%91%E9%8A%80%E8%A1%8C%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>市民銀行球場</t>
+    <t>市民银行球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>華盛頓</t>
+    <t>华盛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>國民球場</t>
+    <t>国民球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E6%A0%BC%E5%88%A9%E7%90%83%E5%9C%BA</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90%E7%B4%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>辛辛那提紅人</t>
+    <t>辛辛那提红人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%BE%8E%E5%9C%8B%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>大美國球場</t>
+    <t>大美国球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -677,61 +677,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA</t>
   </si>
   <si>
-    <t>密爾瓦基</t>
+    <t>密尔瓦基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8B%92%E6%A3%92%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>米勒棒球場</t>
+    <t>米勒棒球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1</t>
   </si>
   <si>
-    <t>匹茲堡</t>
+    <t>匹兹堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PNC%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>PNC球場</t>
+    <t>PNC球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93</t>
   </si>
   <si>
-    <t>聖路易</t>
+    <t>圣路易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B8%8C%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>布希體育場</t>
+    <t>布希体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E</t>
   </si>
   <si>
-    <t>鳳凰城</t>
+    <t>凤凰城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%9A%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>大通體育場</t>
+    <t>大通体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
@@ -743,115 +743,115 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E6%96%AF%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>庫爾斯球場</t>
+    <t>库尔斯球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%A5%87%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>道奇體育場</t>
+    <t>道奇体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5</t>
   </si>
   <si>
-    <t>聖地牙哥</t>
+    <t>圣地牙哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%9B%E5%8F%AF%E5%85%AC%E5%9C%92%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>沛可公園球場</t>
+    <t>沛可公园球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>AT&amp;T球場</t>
+    <t>AT&amp;T球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國家協會</t>
+    <t>国家协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%94%E6%9C%83_(19%E4%B8%96%E7%B4%80)</t>
   </si>
   <si>
-    <t>美國協會 (19世紀)</t>
+    <t>美国协会 (19世纪)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E5%93%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>球員聯盟</t>
+    <t>球员联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%C2%B7%E6%8F%9A</t>
   </si>
   <si>
-    <t>賽·揚</t>
+    <t>赛·扬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界大賽</t>
+    <t>世界大赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E8%90%BD%E7%A3%AF</t>
   </si>
   <si>
-    <t>科羅拉多落磯</t>
+    <t>科罗拉多落矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E9%AD%94%E9%AC%BC%E9%AD%9A</t>
   </si>
   <si>
-    <t>坦帕灣魔鬼魚</t>
+    <t>坦帕湾魔鬼鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家美式足球聯盟</t>
+    <t>国家美式足球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E9%BA%A5%E5%A5%8E%E7%88%BE</t>
   </si>
   <si>
-    <t>馬克·麥奎爾</t>
+    <t>马克·麦奎尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%B1%B3%C2%B7%E7%B4%A2%E8%96%A9</t>
   </si>
   <si>
-    <t>薩米·索薩</t>
+    <t>萨米·索萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%91%9E%C2%B7%E9%82%A6%E8%8C%B2</t>
   </si>
   <si>
-    <t>貝瑞·邦茲</t>
+    <t>贝瑞·邦兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%A5%BF%C2%B7%E5%9D%8E%E5%A1%9E%E6%9F%AF</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%8A%9B%E5%A3%AB%C2%B7%E7%BE%85%E5%BE%B7%E9%87%8C%E5%A5%8E%E8%8C%B2</t>
   </si>
   <si>
-    <t>艾力士·羅德里奎茲</t>
+    <t>艾力士·罗德里奎兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E7%90%83</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%80%9F%E7%90%83</t>
   </si>
   <si>
-    <t>變速球</t>
+    <t>变速球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -899,31 +899,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%A3%92%E7%90%83%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>日本棒球機構</t>
+    <t>日本棒球机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E4%B8%AD%E5%B0%87%E5%A4%A7</t>
   </si>
   <si>
-    <t>田中將大</t>
+    <t>田中将大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%AF%94%E4%BF%AE%E6%9C%89</t>
   </si>
   <si>
-    <t>達比修有</t>
+    <t>达比修有</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E8%8C%82%E8%8B%B1%E9%9B%84</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%B0%B7%E5%B7%9D%E6%BB%8B%E5%88%A9</t>
   </si>
   <si>
-    <t>長谷川滋利</t>
+    <t>长谷川滋利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E4%BD%90%E6%9C%A8%E4%B8%BB%E6%B5%A9</t>
@@ -947,19 +947,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%89%AF%E9%83%A8%E7%A7%80%E8%BC%9D</t>
   </si>
   <si>
-    <t>伊良部秀輝</t>
+    <t>伊良部秀辉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8%E4%B8%80%E6%9C%97</t>
   </si>
   <si>
-    <t>鈴木一朗</t>
+    <t>铃木一朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E5%9D%82%E5%A4%A7%E8%BC%94</t>
   </si>
   <si>
-    <t>松坂大輔</t>
+    <t>松坂大辅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%BA%95%E7%A7%80%E5%96%9C</t>
@@ -971,13 +971,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B3%B6%E5%81%A5%E5%8F%B8</t>
   </si>
   <si>
-    <t>城島健司</t>
+    <t>城岛健司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%94%B0%E5%8D%9A%E6%A8%B9</t>
   </si>
   <si>
-    <t>黑田博樹</t>
+    <t>黑田博树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%94%B0%E5%81%A5%E5%A4%AA</t>
@@ -995,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E8%B3%A2%E6%8C%AF</t>
   </si>
   <si>
-    <t>柳賢振</t>
+    <t>柳贤振</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%A4%A7%E6%B5%A9</t>
@@ -1007,13 +1007,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E9%87%91%E9%8B%92</t>
   </si>
   <si>
-    <t>陳金鋒</t>
+    <t>陈金锋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%BB%BA%E6%B0%91_(%E6%A3%92%E7%90%83%E9%81%B8%E6%89%8B)</t>
   </si>
   <si>
-    <t>王建民 (棒球選手)</t>
+    <t>王建民 (棒球选手)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%AD%E6%B3%93%E5%BF%97</t>
@@ -1031,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%81%89%E6%AE%B7</t>
   </si>
   <si>
-    <t>陳偉殷</t>
+    <t>陈伟殷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%93%B2%E7%91%84</t>
@@ -1043,31 +1043,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%98%89%E4%BB%81</t>
   </si>
   <si>
-    <t>羅嘉仁</t>
+    <t>罗嘉仁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E7%B6%AD%E4%B8%AD</t>
   </si>
   <si>
-    <t>王維中</t>
+    <t>王维中</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%AD%90%E5%81%89</t>
   </si>
   <si>
-    <t>林子偉</t>
+    <t>林子伟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%B7%A8%E8%9B%8B</t>
   </si>
   <si>
-    <t>東京巨蛋</t>
+    <t>东京巨蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E6%A2%A8_(%E5%9F%8E%E5%B8%82)</t>
@@ -1079,19 +1079,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B2%B1%E5%A0%A1</t>
   </si>
   <si>
-    <t>羅德岱堡</t>
+    <t>罗德岱堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%88%BE%E8%8C%B2%E5%A0%A1</t>
   </si>
   <si>
-    <t>麥爾茲堡</t>
+    <t>麦尔兹堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E8%98%AD_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克蘭 (佛羅里達州)</t>
+    <t>莱克兰 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%A5%BF%E7%B1%B3_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -1103,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坦帕 (佛羅里達州)</t>
+    <t>坦帕 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E4%B8%96%E7%95%8C%E5%BA%A6%E5%81%87%E5%8D%80</t>
   </si>
   <si>
-    <t>華特迪士尼世界度假區</t>
+    <t>华特迪士尼世界度假区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%BA%87%E7%89%B9_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -1121,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E6%B8%AF_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖露西港 (佛羅里達州)</t>
+    <t>圣露西港 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%88%BE%E6%B2%83%E7%89%B9_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克利爾沃特 (佛羅里達州)</t>
+    <t>克利尔沃特 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E7%99%BB%E9%A1%BF_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -1139,31 +1139,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%B2%B1%E7%88%BE</t>
   </si>
   <si>
-    <t>格蘭岱爾</t>
+    <t>格兰岱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E6%99%AE%E8%B3%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>瑟普賴斯</t>
+    <t>瑟普赖斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%A5%A7%E9%87%8C%E4%BA%9E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>皮奧里亞 (亞利桑那州)</t>
+    <t>皮奥里亚 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A3%AE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>圖森 (亞利桑那州)</t>
+    <t>图森 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅薩 (亞利桑那州)</t>
+    <t>梅萨 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%8B%89%E7%B4%A2%E5%A1%94_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -1175,85 +1175,85 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%8C%A8%E4%BB%A3%E7%88%BE_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>斯科茨代爾 (美國)</t>
+    <t>斯科茨代尔 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%90%B5%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>地鐵大戰</t>
+    <t>地铁大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%91%E6%A9%98%E5%A4%A7%E6%88%B0_(%E7%BE%8E%E5%9C%8B%E5%A4%A7%E8%81%AF%E7%9B%9F)</t>
   </si>
   <si>
-    <t>柑橘大戰 (美國大聯盟)</t>
+    <t>柑橘大战 (美国大联盟)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%9F%8E%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>風城大戰</t>
+    <t>风城大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E5%8B%95%E9%80%9A%E8%A8%8A%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>美國行動通訊球場</t>
+    <t>美国行动通讯球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E7%9B%83</t>
   </si>
   <si>
-    <t>俄亥俄盃</t>
+    <t>俄亥俄杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%A3%E5%8D%80%E5%A4%A7%E6%A9%8B%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>灣區大橋大戰</t>
+    <t>湾区大桥大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%A3%E5%8D%80%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>灣區大橋</t>
+    <t>湾区大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>高速公路大戰</t>
+    <t>高速公路大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/5%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>5號州際公路</t>
+    <t>5号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/70%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>70號州際公路大戰</t>
+    <t>70号州际公路大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD%E5%A4%96%E7%92%B0%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>首都外環高速公路大戰</t>
+    <t>首都外环高速公路大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E6%98%9F%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>孤星大戰</t>
+    <t>孤星大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%8C%E6%A3%92%E5%A4%A7%E8%81%94%E7%9B%9F%E6%98%8E%E6%98%9F%E8%B5%9B</t>
@@ -1265,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%96%AF%C2%B7%E5%93%88%E6%B3%A2</t>
   </si>
   <si>
-    <t>布萊斯·哈波</t>
+    <t>布莱斯·哈波</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%8F%B2%E7%89%B9%E6%8B%89%E6%96%AF%E5%A0%A1</t>
@@ -1277,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%99%AE%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>大衛·普萊斯</t>
+    <t>大卫·普莱斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%C2%B7%E8%8E%AB%E5%B0%94</t>
@@ -1295,13 +1295,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E8%A8%B1%C2%B7%E6%BC%A2%E7%B1%B3%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>喬許·漢米爾頓</t>
+    <t>乔许·汉米尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E4%BC%AF%C2%B7%E7%93%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>奇伯·瓊斯</t>
+    <t>奇伯·琼斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%82%AF%C2%B7%E8%91%9B%E7%91%9E%E8%8F%B2</t>
@@ -1331,85 +1331,85 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%89%87%E4%BA%94%E9%81%B8%E7%A7%80</t>
   </si>
   <si>
-    <t>規則五選秀</t>
+    <t>规则五选秀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E5%BE%8C%E8%B3%BD</t>
   </si>
   <si>
-    <t>季後賽</t>
+    <t>季后赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%8F%9A%E7%8D%8E</t>
   </si>
   <si>
-    <t>賽揚獎</t>
+    <t>赛扬奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%85%8B%E9%98%BF%E5%80%AB%E7%8D%8E</t>
   </si>
   <si>
-    <t>漢克阿倫獎</t>
+    <t>汉克阿伦奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F%E6%9C%80%E6%9C%89%E5%83%B9%E5%80%BC%E7%90%83%E5%93%A1%E7%8D%8E</t>
   </si>
   <si>
-    <t>美國職棒大聯盟最有價值球員獎</t>
+    <t>美国职棒大联盟最有价值球员奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F%E9%87%91%E6%89%8B%E5%A5%97%E7%8D%8E</t>
   </si>
   <si>
-    <t>美國職棒大聯盟金手套獎</t>
+    <t>美国职棒大联盟金手套奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F%E5%B9%B4%E5%BA%A6%E6%9C%80%E4%BD%B3%E6%95%99%E7%B7%B4%E7%8D%8E</t>
   </si>
   <si>
-    <t>美國職棒大聯盟年度最佳教練獎</t>
+    <t>美国职棒大联盟年度最佳教练奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F%E5%B9%B4%E5%BA%A6%E6%9C%80%E4%BD%B3%E6%96%B0%E4%BA%BA%E7%8D%8E</t>
   </si>
   <si>
-    <t>美國職棒大聯盟年度最佳新人獎</t>
+    <t>美国职棒大联盟年度最佳新人奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F%E5%B9%B4%E5%BA%A6%E6%9C%80%E4%BD%B3%E6%95%91%E6%8F%B4%E6%8A%95%E6%89%8B%E7%8D%8E</t>
   </si>
   <si>
-    <t>美國職棒大聯盟年度最佳救援投手獎</t>
+    <t>美国职棒大联盟年度最佳救援投手奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F%E9%8A%80%E6%A3%92%E7%8D%8E</t>
   </si>
   <si>
-    <t>美國職棒大聯盟銀棒獎</t>
+    <t>美国职棒大联盟银棒奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F%E5%B9%B4%E5%BA%A6%E6%9D%B1%E5%B1%B1%E5%86%8D%E8%B5%B7%E7%90%83%E5%93%A1%E7%8D%8E</t>
   </si>
   <si>
-    <t>美國職棒大聯盟年度東山再起球員獎</t>
+    <t>美国职棒大联盟年度东山再起球员奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F%E7%B4%80%E9%8C%84</t>
   </si>
   <si>
-    <t>美國職棒大聯盟紀錄</t>
+    <t>美国职棒大联盟纪录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%AF%94%E9%AD%AF%E6%96%AF%E9%AD%94%E5%92%92</t>
   </si>
   <si>
-    <t>貝比魯斯魔咒</t>
+    <t>贝比鲁斯魔咒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%A5%AA%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>黑襪事件</t>
+    <t>黑袜事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E7%BE%8A%E9%AD%94%E5%92%92</t>
@@ -1427,25 +1427,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%A3%92%E7%90%83%E7%B6%AD%E5%9F%BA%E9%A4%A8</t>
   </si>
   <si>
-    <t>台灣棒球維基館</t>
+    <t>台湾棒球维基馆</t>
   </si>
   <si>
     <t>http://twbsball.dils.tku.edu.tw/wiki/index.php/美國職業棒球大聯盟</t>
   </si>
   <si>
-    <t>美國職業棒球大聯盟</t>
+    <t>美国职业棒球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83</t>
   </si>
   <si>
-    <t>職業棒球</t>
+    <t>职业棒球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E7%BE%8E%E6%A3%92%E7%90%83%E9%81%B8%E6%89%8B</t>
   </si>
   <si>
-    <t>旅美棒球選手</t>
+    <t>旅美棒球选手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E5%90%8D%E4%BA%BA%E5%A0%82</t>
@@ -1457,25 +1457,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%81%AF%E7%9B%9F%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>大聯盟主席</t>
+    <t>大联盟主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>小聯盟系統</t>
+    <t>小联盟系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>黑人聯盟</t>
+    <t>黑人联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>冬季會議</t>
+    <t>冬季会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Statcast</t>
@@ -1487,109 +1487,88 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%9A%84%E6%91%A9%E9%87%91%E8%8E%BA</t>
   </si>
   <si>
-    <t>巴尔的摩金莺</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B8%82%E7%9A%87%E5%AE%B6</t>
   </si>
   <si>
-    <t>堪萨斯市皇家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%8F%8C%E5%9F%8E</t>
   </si>
   <si>
-    <t>明尼苏达双城</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E9%81%93%E5%A5%87</t>
   </si>
   <si>
-    <t>洛杉矶道奇</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9C%B0%E7%89%99%E5%93%A5%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>圣地牙哥教士</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E7%9B%9F%E5%86%A0%E8%BB%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>美國聯盟冠軍賽</t>
+    <t>美国联盟冠军赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F%E5%86%A0%E8%BB%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>國家聯盟冠軍賽</t>
+    <t>国家联盟冠军赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E7%9B%9F%E5%88%86%E5%8D%80%E8%B3%BD</t>
   </si>
   <si>
-    <t>美國聯盟分區賽</t>
+    <t>美国联盟分区赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F%E5%88%86%E5%8D%80%E8%B3%BD</t>
   </si>
   <si>
-    <t>國家聯盟分區賽</t>
+    <t>国家联盟分区赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F%E5%A4%96%E5%8D%A1%E9%A9%9F%E6%AD%BB%E8%B3%BD</t>
   </si>
   <si>
-    <t>美國職棒大聯盟外卡驟死賽</t>
+    <t>美国职棒大联盟外卡骤死赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E6%A3%92%E7%90%83%E5%90%8D%E4%BA%BA%E5%A0%82%E6%9A%A8%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國國家棒球名人堂暨博物館</t>
+    <t>美国国家棒球名人堂暨博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A3%92%E7%90%83%E7%B6%93%E5%85%B8%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界棒球經典賽</t>
+    <t>世界棒球经典赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>Template talk-職業棒球聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國職棒大聯盟</t>
+    <t>Template talk-职业棒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>國際聯盟 (棒球)</t>
+    <t>国际联盟 (棒球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%B2%B8%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>太平洋岸聯盟</t>
+    <t>太平洋岸联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>東方聯盟</t>
+    <t>东方联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>尼加拉瓜職業棒球聯盟</t>
+    <t>尼加拉瓜职业棒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%A3%92%E7%90%83%E8%81%94%E8%B5%9B</t>
@@ -1601,103 +1580,103 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>中央聯盟</t>
+    <t>中央联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>太平洋聯盟</t>
+    <t>太平洋联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E5%B3%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國島聯盟</t>
+    <t>四国岛联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E6%8C%91%E6%88%B0%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>棒球挑戰聯盟</t>
+    <t>棒球挑战联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%A5%BF%E7%8D%A8%E7%AB%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>關西獨立聯盟</t>
+    <t>关西独立联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A5%B3%E5%AD%90%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>日本女子職業棒球聯盟</t>
+    <t>日本女子职业棒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E6%A3%92%E7%90%83%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>韓國棒球委員會</t>
+    <t>韩国棒球委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>中華職業棒球大聯盟</t>
+    <t>中华职业棒球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%86%E7%B1%B3%E8%8A%B1%E5%A4%8F%E5%AD%A3%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>爆米花夏季聯盟</t>
+    <t>爆米花夏季联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%A3%92%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>荷蘭棒球聯盟</t>
+    <t>荷兰棒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>澳洲職業棒球聯盟</t>
+    <t>澳洲职业棒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E8%81%B7%E6%A3%92%E5%A4%A7%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲職棒大賽</t>
+    <t>亚洲职棒大赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E8%81%B7%E6%A3%92%E5%86%A0%E8%BB%8D%E7%88%AD%E9%9C%B8%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲職棒冠軍爭霸賽</t>
+    <t>亚洲职棒冠军争霸赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%86%AC%E5%AD%A3%E6%A3%92%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>亞洲冬季棒球聯盟</t>
+    <t>亚洲冬季棒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E8%81%B7%E6%A5%AD%E9%AB%94%E8%82%B2%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>北美職業體育聯賽</t>
+    <t>北美职业体育联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%8A%A0%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>加拿大加式足球聯盟</t>
+    <t>加拿大加式足球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職業足球大聯盟</t>
+    <t>美国职业足球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -1709,13 +1688,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%BE%8E%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家美式橄欖球聯盟</t>
+    <t>国家美式橄榄球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家冰球聯盟</t>
+    <t>国家冰球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
@@ -2073,7 +2052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2185,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -10592,7 +10571,7 @@
         <v>489</v>
       </c>
       <c r="F294" t="s">
-        <v>490</v>
+        <v>60</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10618,10 +10597,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F295" t="s">
-        <v>492</v>
+        <v>74</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10647,10 +10626,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F296" t="s">
-        <v>494</v>
+        <v>76</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10705,10 +10684,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F298" t="s">
-        <v>496</v>
+        <v>54</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10734,10 +10713,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F299" t="s">
-        <v>498</v>
+        <v>56</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10763,10 +10742,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F300" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10792,10 +10771,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F301" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10821,10 +10800,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F302" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10850,10 +10829,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F303" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10879,10 +10858,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F304" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10908,10 +10887,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F305" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -10937,10 +10916,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F306" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -10966,10 +10945,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F307" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G307" t="n">
         <v>5</v>
@@ -10995,13 +10974,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>515</v>
+        <v>87</v>
       </c>
       <c r="F308" t="s">
-        <v>516</v>
+        <v>88</v>
       </c>
       <c r="G308" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11024,13 +11003,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>87</v>
+        <v>510</v>
       </c>
       <c r="F309" t="s">
-        <v>88</v>
+        <v>511</v>
       </c>
       <c r="G309" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11053,10 +11032,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F310" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11082,13 +11061,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F311" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -11111,13 +11090,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F312" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -11140,10 +11119,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F313" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11169,10 +11148,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F314" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11198,13 +11177,13 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F315" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -11227,13 +11206,13 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F316" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -11256,10 +11235,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F317" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11285,10 +11264,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F318" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11314,10 +11293,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F319" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11343,10 +11322,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F320" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11372,10 +11351,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F321" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11401,10 +11380,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F322" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11430,10 +11409,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F323" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11459,10 +11438,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F324" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11488,10 +11467,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F325" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11517,10 +11496,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F326" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11546,10 +11525,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F327" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11575,10 +11554,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="F328" t="s">
-        <v>554</v>
+        <v>474</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11604,10 +11583,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>473</v>
+        <v>548</v>
       </c>
       <c r="F329" t="s">
-        <v>474</v>
+        <v>549</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11633,10 +11612,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F330" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11662,10 +11641,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F331" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11691,10 +11670,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F332" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11720,10 +11699,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F333" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -11749,10 +11728,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F334" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -11778,13 +11757,13 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F335" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -11807,47 +11786,18 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F336" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G336" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
       </c>
       <c r="I336" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1</v>
-      </c>
-      <c r="D337" t="n">
-        <v>336</v>
-      </c>
-      <c r="E337" t="s">
-        <v>567</v>
-      </c>
-      <c r="F337" t="s">
-        <v>569</v>
-      </c>
-      <c r="G337" t="n">
-        <v>1</v>
-      </c>
-      <c r="H337" t="s">
-        <v>4</v>
-      </c>
-      <c r="I337" t="n">
         <v>3</v>
       </c>
     </row>
